--- a/testing_results/inference_time_syn10x10.xlsx
+++ b/testing_results/inference_time_syn10x10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7640806794166565</v>
+        <v>0.8098621153831482</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7577970170974732</v>
+        <v>0.7726695322990418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7620760083198548</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7648572707176209</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7629017972946167</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.762606475353241</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.768190279006958</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7577215218544007</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.7710034322738647</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7518015170097351</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.7611456060409546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.7616708755493165</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7847967338562012</v>
-      </c>
-      <c r="N2" t="n">
-        <v>23.03123825550079</v>
+        <v>26.2172648024559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.531054406166077</v>
+        <v>1.574577529430389</v>
       </c>
       <c r="B3" t="n">
-        <v>1.526282908916473</v>
+        <v>1.535751461982727</v>
       </c>
       <c r="C3" t="n">
-        <v>1.531871101856232</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.533981714248657</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.531864321231842</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.531278386116028</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.541337351799011</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.517713673114777</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.546309292316437</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.501542549133301</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.530707447528839</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.528304772377014</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.588667929172516</v>
-      </c>
-      <c r="N3" t="n">
-        <v>45.98955979347229</v>
+        <v>52.49931075334549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.077540941238403</v>
+        <v>3.182287776470184</v>
       </c>
       <c r="B4" t="n">
-        <v>3.058651213645935</v>
+        <v>3.071617238521576</v>
       </c>
       <c r="C4" t="n">
-        <v>3.08422783613205</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.087963833808899</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.073903701305389</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.085779740810394</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.092349934577942</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.065680408477783</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.104161961078644</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.030546615123749</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.07701581954956</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.075725436210632</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.197485892772674</v>
-      </c>
-      <c r="N4" t="n">
-        <v>91.03469082593918</v>
+        <v>102.9719937777519</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7.919841794967652</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.683175806999206</v>
+      </c>
+      <c r="C5" t="n">
+        <v>262.2230569577217</v>
       </c>
     </row>
   </sheetData>
